--- a/Distribución.xlsx
+++ b/Distribución.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UMG\Octavo ciclo\Desrrollo Web\proyecto_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020\desarrollo web\projects comun\projectDjango\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258E6B07-5156-4EBB-AA3B-2660DD896F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95051AE-3B56-4822-82B7-FE409A383FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8DF3AF1-A4AA-47C3-B201-C40AAFFBA999}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8DF3AF1-A4AA-47C3-B201-C40AAFFBA999}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +98,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,14 +216,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,6 +240,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,9 +253,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -263,7 +261,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -292,12 +292,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B9012EF-FCBD-4AD6-BDE6-C76ADF5D47CF}" name="Tabla1" displayName="Tabla1" ref="A2:D97" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B9012EF-FCBD-4AD6-BDE6-C76ADF5D47CF}" name="Tabla1" displayName="Tabla1" ref="A2:D97" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:D97" xr:uid="{1EABEC7E-4C35-4B54-8B30-DDB966D65A83}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{29D6ABF9-F3C1-46D7-92B9-F343E7368DCC}" name="Video" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E12961DC-FE20-427F-892D-0C1FF1C6DA9F}" name="Responsable" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E25CE809-323C-4013-87EE-5C914AB845DE}" name="Avance" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{29D6ABF9-F3C1-46D7-92B9-F343E7368DCC}" name="Video" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E12961DC-FE20-427F-892D-0C1FF1C6DA9F}" name="Responsable" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E25CE809-323C-4013-87EE-5C914AB845DE}" name="Avance" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Porcentaje"/>
     <tableColumn id="4" xr3:uid="{85CE040C-B6DF-4250-9E97-86A9732CB1EE}" name="Fecha" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -604,26 +604,26 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
@@ -633,9 +633,9 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +650,7 @@
       </c>
       <c r="E2" s="7">
         <f>ROUND(SUM(Tabla1[Avance])*100/9500,2)/100</f>
-        <v>0.21050000000000002</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -658,11 +658,11 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -670,13 +670,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -686,11 +686,11 @@
       <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -700,11 +700,11 @@
       <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -714,11 +714,12 @@
       <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>44086</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -728,11 +729,11 @@
       <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -742,11 +743,11 @@
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -756,11 +757,11 @@
       <c r="C9" s="2">
         <v>100</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -770,11 +771,11 @@
       <c r="C10" s="2">
         <v>100</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -784,11 +785,11 @@
       <c r="C11" s="2">
         <v>100</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,11 +799,11 @@
       <c r="C12" s="2">
         <v>100</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -812,11 +813,11 @@
       <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -826,11 +827,11 @@
       <c r="C14" s="2">
         <v>100</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -840,11 +841,11 @@
       <c r="C15" s="2">
         <v>100</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -854,11 +855,11 @@
       <c r="C16" s="2">
         <v>100</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -868,11 +869,11 @@
       <c r="C17" s="2">
         <v>100</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -882,11 +883,11 @@
       <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>44086</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -896,11 +897,11 @@
       <c r="C19" s="2">
         <v>100</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>44106</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -910,11 +911,11 @@
       <c r="C20" s="2">
         <v>100</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>44106</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -924,11 +925,11 @@
       <c r="C21" s="2">
         <v>100</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>44106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -938,11 +939,11 @@
       <c r="C22" s="2">
         <v>100</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>44106</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -950,11 +951,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -962,11 +965,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -974,11 +979,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -986,11 +993,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D26" s="5">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -998,11 +1007,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1010,11 +1021,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1022,11 +1035,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1034,11 +1049,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D30" s="5">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1046,11 +1063,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1058,11 +1077,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1070,11 +1091,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1082,11 +1105,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1094,11 +1119,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D35" s="5">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1106,11 +1133,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D36" s="5">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1118,11 +1147,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D37" s="5">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1130,11 +1161,13 @@
         <v>3</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D38" s="5">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1142,11 +1175,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D39" s="5">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1156,9 +1191,11 @@
       <c r="C40" s="2">
         <v>100</v>
       </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="5">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1166,11 +1203,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D41" s="5">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1178,11 +1217,13 @@
         <v>3</v>
       </c>
       <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D42" s="5">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1190,11 +1231,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D43" s="5">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1202,11 +1245,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D44" s="5">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1214,11 +1259,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D45" s="5">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1226,11 +1273,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D46" s="5">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1238,11 +1287,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D47" s="5">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1250,11 +1301,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D48" s="5">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1262,11 +1315,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D49" s="5">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1274,11 +1329,13 @@
         <v>2</v>
       </c>
       <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D50" s="5">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1286,11 +1343,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D51" s="5">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1298,11 +1357,13 @@
         <v>3</v>
       </c>
       <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D52" s="5">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1314,7 +1375,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1326,7 +1387,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1338,7 +1399,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1350,7 +1411,7 @@
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1362,7 +1423,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1374,7 +1435,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1386,7 +1447,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1398,7 +1459,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1410,7 +1471,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1422,7 +1483,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1434,7 +1495,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1446,7 +1507,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1458,7 +1519,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1470,7 +1531,7 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1482,7 +1543,7 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1494,7 +1555,7 @@
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1506,7 +1567,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1518,7 +1579,7 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1530,7 +1591,7 @@
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1542,7 +1603,7 @@
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1554,7 +1615,7 @@
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1566,7 +1627,7 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1578,7 +1639,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1590,7 +1651,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1602,7 +1663,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1614,7 +1675,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1626,7 +1687,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1638,7 +1699,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1650,7 +1711,7 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1662,7 +1723,7 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1674,7 +1735,7 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1686,7 +1747,7 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1698,7 +1759,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1710,7 +1771,7 @@
       </c>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1722,7 +1783,7 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1734,7 +1795,7 @@
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1746,7 +1807,7 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1758,7 +1819,7 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1770,7 +1831,7 @@
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1782,7 +1843,7 @@
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1794,7 +1855,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1806,7 +1867,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1818,7 +1879,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1830,7 +1891,7 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>

--- a/Distribución.xlsx
+++ b/Distribución.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020\desarrollo web\projects comun\projectDjango\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95051AE-3B56-4822-82B7-FE409A383FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653D8800-3C9B-4C63-9CAA-D3073BBE2E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8DF3AF1-A4AA-47C3-B201-C40AAFFBA999}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="E2" s="7">
         <f>ROUND(SUM(Tabla1[Avance])*100/9500,2)/100</f>
-        <v>0.52629999999999999</v>
+        <v>0.57889999999999997</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1371,9 +1371,11 @@
         <v>3</v>
       </c>
       <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D53" s="5">
+        <v>44113</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -1383,9 +1385,11 @@
         <v>3</v>
       </c>
       <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D54" s="5">
+        <v>44113</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -1395,9 +1399,11 @@
         <v>3</v>
       </c>
       <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D55" s="5">
+        <v>44113</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -1407,9 +1413,11 @@
         <v>3</v>
       </c>
       <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D56" s="5">
+        <v>44113</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -1419,9 +1427,11 @@
         <v>3</v>
       </c>
       <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D57" s="5">
+        <v>44113</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -1923,7 +1933,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C97" xr:uid="{6EEBF63C-8DE9-4B8B-8A0C-A91304F2E635}">
       <formula1>"0,25,50,75,100"</formula1>
     </dataValidation>

--- a/Distribución.xlsx
+++ b/Distribución.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020\desarrollo web\projects comun\projectDjango\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653D8800-3C9B-4C63-9CAA-D3073BBE2E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6418FC98-10A3-442B-B733-877A4A5FD9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8DF3AF1-A4AA-47C3-B201-C40AAFFBA999}"/>
   </bookViews>
@@ -604,8 +604,8 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="E2" s="7">
         <f>ROUND(SUM(Tabla1[Avance])*100/9500,2)/100</f>
-        <v>0.57889999999999997</v>
+        <v>0.64209999999999989</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1441,9 +1441,11 @@
         <v>3</v>
       </c>
       <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D58" s="5">
+        <v>44114</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -1453,9 +1455,11 @@
         <v>3</v>
       </c>
       <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D59" s="5">
+        <v>44114</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -1465,9 +1469,11 @@
         <v>3</v>
       </c>
       <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D60" s="5">
+        <v>44114</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -1477,9 +1483,11 @@
         <v>3</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D61" s="5">
+        <v>44114</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -1489,9 +1497,11 @@
         <v>3</v>
       </c>
       <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D62" s="5">
+        <v>44114</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
@@ -1501,9 +1511,11 @@
         <v>2</v>
       </c>
       <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D63" s="5">
+        <v>44116</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
@@ -1933,7 +1945,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C97" xr:uid="{6EEBF63C-8DE9-4B8B-8A0C-A91304F2E635}">
       <formula1>"0,25,50,75,100"</formula1>
     </dataValidation>

--- a/Distribución.xlsx
+++ b/Distribución.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020\desarrollo web\projects comun\projectDjango\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6418FC98-10A3-442B-B733-877A4A5FD9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBCA2EB-140F-4127-A30B-0F9BCA95AC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8DF3AF1-A4AA-47C3-B201-C40AAFFBA999}"/>
   </bookViews>
@@ -604,8 +604,8 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="E2" s="7">
         <f>ROUND(SUM(Tabla1[Avance])*100/9500,2)/100</f>
-        <v>0.64209999999999989</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1525,9 +1525,11 @@
         <v>2</v>
       </c>
       <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D64" s="5">
+        <v>44116</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
@@ -1537,9 +1539,11 @@
         <v>2</v>
       </c>
       <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D65" s="5">
+        <v>44117</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
@@ -1549,9 +1553,11 @@
         <v>2</v>
       </c>
       <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D66" s="5">
+        <v>44117</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -1561,9 +1567,11 @@
         <v>2</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D67" s="5">
+        <v>44117</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
@@ -1573,9 +1581,11 @@
         <v>2</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D68" s="5">
+        <v>44118</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
@@ -1585,9 +1595,11 @@
         <v>2</v>
       </c>
       <c r="C69" s="2">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D69" s="5">
+        <v>44118</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -1597,9 +1609,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D70" s="5">
+        <v>44118</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -1609,9 +1623,11 @@
         <v>2</v>
       </c>
       <c r="C71" s="2">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D71" s="5">
+        <v>44121</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
@@ -1621,9 +1637,11 @@
         <v>2</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D72" s="5">
+        <v>44121</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
@@ -1633,9 +1651,11 @@
         <v>3</v>
       </c>
       <c r="C73" s="2">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D73" s="5">
+        <v>44123</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
@@ -1645,9 +1665,11 @@
         <v>3</v>
       </c>
       <c r="C74" s="2">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D74" s="5">
+        <v>44123</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
@@ -1657,9 +1679,11 @@
         <v>3</v>
       </c>
       <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D75" s="5">
+        <v>44123</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -1669,9 +1693,11 @@
         <v>3</v>
       </c>
       <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D76" s="5">
+        <v>44124</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -1681,9 +1707,11 @@
         <v>3</v>
       </c>
       <c r="C77" s="2">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D77" s="5">
+        <v>44124</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -1693,9 +1721,11 @@
         <v>3</v>
       </c>
       <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D78" s="5">
+        <v>44124</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">

--- a/Distribución.xlsx
+++ b/Distribución.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020\desarrollo web\projects comun\projectDjango\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBCA2EB-140F-4127-A30B-0F9BCA95AC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71CC19-12A5-41FF-BCFD-CF128D3C5F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8DF3AF1-A4AA-47C3-B201-C40AAFFBA999}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="E2" s="7">
         <f>ROUND(SUM(Tabla1[Avance])*100/9500,2)/100</f>
-        <v>0.8</v>
+        <v>0.94739999999999991</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1735,9 +1735,11 @@
         <v>3</v>
       </c>
       <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D79" s="5">
+        <v>44125</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
@@ -1747,11 +1749,13 @@
         <v>3</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D80" s="5">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1759,11 +1763,13 @@
         <v>3</v>
       </c>
       <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D81" s="5">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1771,11 +1777,13 @@
         <v>3</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D82" s="5">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1783,11 +1791,13 @@
         <v>2</v>
       </c>
       <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D83" s="5">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1795,11 +1805,13 @@
         <v>2</v>
       </c>
       <c r="C84" s="2">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D84" s="5">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1807,11 +1819,13 @@
         <v>2</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D85" s="5">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1819,11 +1833,13 @@
         <v>2</v>
       </c>
       <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D86" s="5">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1831,11 +1847,13 @@
         <v>2</v>
       </c>
       <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D87" s="5">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1843,11 +1861,13 @@
         <v>2</v>
       </c>
       <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D88" s="5">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1855,11 +1875,13 @@
         <v>2</v>
       </c>
       <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D89" s="5">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1867,11 +1889,13 @@
         <v>2</v>
       </c>
       <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D90" s="5">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1879,11 +1903,13 @@
         <v>2</v>
       </c>
       <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D91" s="5">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1891,11 +1917,14 @@
         <v>2</v>
       </c>
       <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D92" s="5">
+        <v>44129</v>
+      </c>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1907,7 +1936,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1919,7 +1948,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1931,7 +1960,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
